--- a/output/fit_clients/fit_round_474.xlsx
+++ b/output/fit_clients/fit_round_474.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1862892078.924876</v>
+        <v>1754309863.696459</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1120185226994398</v>
+        <v>0.08356713132156333</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04494129424880114</v>
+        <v>0.03511401020411823</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
         <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>931446016.6903079</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1591817170.326333</v>
+        <v>2153408317.734063</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1118326662231868</v>
+        <v>0.1278199377937293</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03678355171973877</v>
+        <v>0.03284722373012232</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>795908562.0262307</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3656068316.496074</v>
+        <v>4436308287.554962</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1484651753615925</v>
+        <v>0.1609043125115114</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03740617368723453</v>
+        <v>0.02331239135734958</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>171</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1828034148.08424</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2765468151.583465</v>
+        <v>4059167094.719139</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0809355527501307</v>
+        <v>0.09853722564918359</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03329794897860044</v>
+        <v>0.0319189208965734</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>175</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1382734161.186502</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2749945458.626954</v>
+        <v>1743022388.891853</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1398141964604179</v>
+        <v>0.1022065944290016</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04739688683587821</v>
+        <v>0.05334981469775759</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>89</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1374972677.766438</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2722053946.144121</v>
+        <v>3108073062.393671</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08032298023289336</v>
+        <v>0.0779214921276136</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04805026631634378</v>
+        <v>0.03419345910343553</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>149</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1361026964.751327</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2851962829.971208</v>
+        <v>3340153241.823708</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1704908310795495</v>
+        <v>0.1782986111942892</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02683731318436188</v>
+        <v>0.03244201213131441</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>152</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1425981457.386813</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1846542285.005454</v>
+        <v>1754613704.435058</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1308656041890254</v>
+        <v>0.1707729633755476</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03011502239723072</v>
+        <v>0.02312465289022199</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>923271190.4281975</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5808568133.109746</v>
+        <v>5748418429.630489</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1596221409062173</v>
+        <v>0.1409619367779139</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04954081074808686</v>
+        <v>0.03466763796951194</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>199</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2904284228.471415</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3182424453.730752</v>
+        <v>2947889669.684792</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1706585291326402</v>
+        <v>0.1217608919876246</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03553788484852458</v>
+        <v>0.04154193656082174</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>196</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1591212182.597514</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3281679375.777982</v>
+        <v>2944650782.025986</v>
       </c>
       <c r="F12" t="n">
-        <v>0.180884356820093</v>
+        <v>0.1217822572209601</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05242879477048278</v>
+        <v>0.04839099814042787</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>160</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1640839731.720196</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4644963138.87763</v>
+        <v>4957041723.953195</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06189099464013656</v>
+        <v>0.101876243523731</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02581772248318128</v>
+        <v>0.02258940608539325</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>159</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2322481591.629917</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3784492823.522611</v>
+        <v>3653058335.986527</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1310409440992105</v>
+        <v>0.1561994399784513</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02799819929837969</v>
+        <v>0.03571713353847002</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>152</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1892246389.412856</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1302549122.686259</v>
+        <v>1560851058.756103</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09948712305629495</v>
+        <v>0.07299095282720582</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03542034744608769</v>
+        <v>0.03895363264416993</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>651274602.0971943</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2122578378.496606</v>
+        <v>1813936414.264101</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1054091585435417</v>
+        <v>0.09827730093325265</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04439888106967243</v>
+        <v>0.03221680837750875</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>98</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1061289253.806501</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5228191019.536257</v>
+        <v>4521772268.419404</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1634676110615885</v>
+        <v>0.1378630660010797</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03880630793741043</v>
+        <v>0.05300418764512086</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>140</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2614095483.703608</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3134275165.174425</v>
+        <v>2933239131.846602</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1473163644740845</v>
+        <v>0.1587561164881263</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03244571010985185</v>
+        <v>0.02686859683913671</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>155</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1567137603.202194</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>945707650.1924435</v>
+        <v>979540231.4736581</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1315160975768313</v>
+        <v>0.1183663244757311</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02556667495948521</v>
+        <v>0.02440162094710513</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>472853841.1434099</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1788555130.921445</v>
+        <v>1728801569.401472</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1591618604354075</v>
+        <v>0.1105280086869487</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0206048509718475</v>
+        <v>0.02447193647189817</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>67</v>
-      </c>
-      <c r="J20" t="n">
-        <v>894277614.3551716</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1976566681.149363</v>
+        <v>2048685736.386495</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07506431496639233</v>
+        <v>0.09766858527942919</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04140292715483443</v>
+        <v>0.03961738352475403</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>36</v>
-      </c>
-      <c r="J21" t="n">
-        <v>988283378.7890568</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3949202119.071918</v>
+        <v>3030344046.884968</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1294877588341406</v>
+        <v>0.1399546309027454</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04189129566934403</v>
+        <v>0.03692579088551989</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>130</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1974601064.250319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1090284444.288507</v>
+        <v>1324061446.760072</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1510700311971547</v>
+        <v>0.1741990620700616</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04782184032177678</v>
+        <v>0.05448297989533559</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>545142277.1575552</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4061088583.99487</v>
+        <v>2914224432.325736</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09536251679760178</v>
+        <v>0.1502399312573544</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03323049454582076</v>
+        <v>0.03046917255981456</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>139</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2030544255.898255</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1205673063.428387</v>
+        <v>1258145776.40449</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1145968485086137</v>
+        <v>0.1091837719674008</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01867151585667306</v>
+        <v>0.02951179717099994</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>602836548.3952218</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1168720005.720058</v>
+        <v>1327466330.167276</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08727139783103365</v>
+        <v>0.09665910250002142</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02569043512655838</v>
+        <v>0.0278298850756349</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>584360016.2440292</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4635173250.840198</v>
+        <v>3484272022.33754</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1029371070540602</v>
+        <v>0.0979622796261423</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01948813987351742</v>
+        <v>0.02316702547486724</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>119</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2317586604.025209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3892368801.48927</v>
+        <v>3782358025.758565</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09314354972600369</v>
+        <v>0.1415794185130189</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04589312389610496</v>
+        <v>0.03916469290187411</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>155</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1946184489.437798</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4906549106.096824</v>
+        <v>4750417475.310212</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09548112770942929</v>
+        <v>0.1068590899851073</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04408779657148525</v>
+        <v>0.03752075534117722</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>209</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2453274507.086667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1666346279.452622</v>
+        <v>1596293133.192383</v>
       </c>
       <c r="F30" t="n">
-        <v>0.104041374321064</v>
+        <v>0.1323385821166357</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02633850282602023</v>
+        <v>0.03440825041631447</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>833173139.1891946</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>976030979.342954</v>
+        <v>1174689441.740424</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07845075610248749</v>
+        <v>0.0717454526702084</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03947718384291665</v>
+        <v>0.05001946515348413</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>488015493.8784429</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1619497278.165001</v>
+        <v>1698094618.368255</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1117906094546134</v>
+        <v>0.1120391568349372</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03471117037018569</v>
+        <v>0.03135126384165081</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>809748732.2097437</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2670895535.095588</v>
+        <v>2731555930.931653</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1645782831604984</v>
+        <v>0.1992599921194236</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05109731675398401</v>
+        <v>0.05333077171553665</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>145</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1335447791.209048</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1104194876.597807</v>
+        <v>1268087426.03617</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1022854024534696</v>
+        <v>0.09967864297359544</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02535722652359414</v>
+        <v>0.02377612107465939</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>552097459.128653</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1220474428.558985</v>
+        <v>1013566643.666338</v>
       </c>
       <c r="F35" t="n">
-        <v>0.118114618648729</v>
+        <v>0.1033023984013249</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04060353701461891</v>
+        <v>0.03878882600980543</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>610237184.5375445</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2140280844.737855</v>
+        <v>2784850803.951961</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1246430280180452</v>
+        <v>0.1226669709817257</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02370172430444174</v>
+        <v>0.02213699004262206</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>119</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1070140473.205971</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2600729047.772893</v>
+        <v>1782779853.797242</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07212651596713673</v>
+        <v>0.1056438867220748</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02810772534496749</v>
+        <v>0.0279165663473406</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>128</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1300364633.856626</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2080065335.399163</v>
+        <v>1880156276.853206</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1081340931041296</v>
+        <v>0.08743755070047547</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02807419669606701</v>
+        <v>0.03423882733867689</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1040032635.031035</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2100220136.034137</v>
+        <v>1582086929.605155</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1608211836416339</v>
+        <v>0.1945351494414264</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02672469910419905</v>
+        <v>0.02933878767882842</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1050110047.36939</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1182958993.190514</v>
+        <v>1822722350.911415</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1028755245091263</v>
+        <v>0.1561227262840038</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05071995357473122</v>
+        <v>0.04095574056341678</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>591479542.1752747</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2803204830.127649</v>
+        <v>2440052249.64502</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1051315694913073</v>
+        <v>0.124472035632335</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04608430965336886</v>
+        <v>0.0406232323591055</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>114</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1401602410.72737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4048935985.616187</v>
+        <v>3886408291.07874</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1054542442510359</v>
+        <v>0.1110291257525944</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04277569590253018</v>
+        <v>0.03947455013936002</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>156</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2024468025.463812</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3051100537.062524</v>
+        <v>2941875808.897522</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1976197345150394</v>
+        <v>0.1396878390635441</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02168190864286916</v>
+        <v>0.02436737027944703</v>
       </c>
       <c r="H43" t="b">
         <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>165</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1525550261.798008</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1826744173.230803</v>
+        <v>2091207241.039638</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0985756094802599</v>
+        <v>0.07334385463099104</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03022759891934581</v>
+        <v>0.03379536650218479</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>913372158.4141806</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1587808940.315877</v>
+        <v>2462141227.50248</v>
       </c>
       <c r="F45" t="n">
-        <v>0.139280737869668</v>
+        <v>0.1881376113477283</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05298051922979905</v>
+        <v>0.03892127994764325</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>793904419.478299</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4545380486.352824</v>
+        <v>3455134141.386793</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1465393943873632</v>
+        <v>0.1445187019829393</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04000254923109808</v>
+        <v>0.03893873290416691</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>169</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2272690243.996634</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4716078552.107534</v>
+        <v>4929624299.254633</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1508290456280044</v>
+        <v>0.1406180130899211</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03846071155197606</v>
+        <v>0.05883239695232584</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>128</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2358039315.774913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3452003233.890991</v>
+        <v>3013882228.966948</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09434957782879744</v>
+        <v>0.1007723846964145</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02962857298419197</v>
+        <v>0.02412968702033986</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>155</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1726001683.172498</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1450606783.325224</v>
+        <v>1672838041.090077</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1676137460762983</v>
+        <v>0.1190576477163378</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0286636514135607</v>
+        <v>0.04043871454599571</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>725303431.3751699</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4146406585.293076</v>
+        <v>3653182243.748822</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1425118132657125</v>
+        <v>0.1407442518158791</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04002326154721603</v>
+        <v>0.04206725376556247</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>163</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2073203270.943702</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1493385255.05699</v>
+        <v>1279364262.229778</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1463379652078136</v>
+        <v>0.1562301201725466</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03644600049070482</v>
+        <v>0.03844002806664289</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>746692631.5434318</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3504156470.078842</v>
+        <v>3531158576.599412</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09535108844527528</v>
+        <v>0.1023035551537144</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05365911643890368</v>
+        <v>0.04051201373240818</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>195</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1752078320.717091</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3656882843.286223</v>
+        <v>3227636959.390567</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1666930666831287</v>
+        <v>0.1947494636324749</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0270909777342795</v>
+        <v>0.02620636561900081</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>136</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1828441408.772364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3442088449.151261</v>
+        <v>3677669032.198228</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1614265280078714</v>
+        <v>0.1025348918198937</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03717161062034601</v>
+        <v>0.03814241020195084</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>154</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1721044244.867631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3094204724.211624</v>
+        <v>4714011063.661917</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1544850677262287</v>
+        <v>0.2116024020953249</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03150715484114539</v>
+        <v>0.02147139501939734</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>136</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1547102297.06415</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1328563584.473517</v>
+        <v>1234642757.531542</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1081725733463532</v>
+        <v>0.1418194002524073</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05523000110478769</v>
+        <v>0.03878466535791895</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>664281859.9336793</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3587981408.963926</v>
+        <v>4462985799.456023</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1798275830787943</v>
+        <v>0.1559199265881147</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02387631552774642</v>
+        <v>0.01986360561041673</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>150</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1793990758.276818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1221744656.762748</v>
+        <v>1577612838.76976</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1375003195990355</v>
+        <v>0.187787040496401</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02844427530240659</v>
+        <v>0.03206532726693306</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>610872384.9383694</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5315631004.311404</v>
+        <v>3784405108.684963</v>
       </c>
       <c r="F59" t="n">
-        <v>0.118892608181788</v>
+        <v>0.08723535094596817</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03159181451360627</v>
+        <v>0.04647789484497526</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>130</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2657815414.649419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3710839382.0266</v>
+        <v>2374778512.010838</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1514835409867186</v>
+        <v>0.1295136438443515</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02349349404535223</v>
+        <v>0.02398429607966635</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>147</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1855419835.949788</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3361634178.562846</v>
+        <v>3165343016.753458</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1457803228985124</v>
+        <v>0.1354212921910101</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02446944648726857</v>
+        <v>0.02231801674577714</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>162</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1680817035.665423</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1921753570.320054</v>
+        <v>1636467351.066712</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1830155211989526</v>
+        <v>0.1343843908112393</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03214372088853191</v>
+        <v>0.03604999974448531</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>960876831.4828919</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3632036333.090265</v>
+        <v>4858506527.388195</v>
       </c>
       <c r="F63" t="n">
-        <v>0.104906449018785</v>
+        <v>0.0949818565174716</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0330682309190027</v>
+        <v>0.03093228522987693</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>134</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1816018245.369828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5417918527.191498</v>
+        <v>4736687727.803063</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1822784191005395</v>
+        <v>0.1584728995401739</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02652587052787411</v>
+        <v>0.02271788296558351</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>147</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2708959399.210468</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4220797895.633072</v>
+        <v>5581461355.959939</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1721682170764746</v>
+        <v>0.1492401444604882</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0217201410561647</v>
+        <v>0.02148843237372937</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>170</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2110398953.254246</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4127816540.417988</v>
+        <v>4043914043.123067</v>
       </c>
       <c r="F66" t="n">
-        <v>0.131451134641923</v>
+        <v>0.1290199169140658</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04204723663171689</v>
+        <v>0.03784286984018861</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>138</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2063908250.63363</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2271940788.665929</v>
+        <v>2431744224.215488</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06222907429409376</v>
+        <v>0.09358288062710637</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03105580014046056</v>
+        <v>0.05076548556828933</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>152</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1135970474.294196</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4356999869.332647</v>
+        <v>4629103638.812028</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1573361482922065</v>
+        <v>0.1063545805772578</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04834400827652054</v>
+        <v>0.03990335916188283</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>151</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2178499952.110537</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2377636812.345759</v>
+        <v>2041806766.148846</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1583539844027905</v>
+        <v>0.1206536834809278</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05251582486814256</v>
+        <v>0.04511343656031339</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1188818460.004483</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2765564310.110404</v>
+        <v>3613598012.345538</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08031412982800837</v>
+        <v>0.09990392974318281</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0496893570628471</v>
+        <v>0.03959784448601334</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>136</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1382782116.78791</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3873751919.074072</v>
+        <v>5539865461.933226</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1147105761103198</v>
+        <v>0.1622948216514687</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03274813997442311</v>
+        <v>0.02655341930003376</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>172</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1936875981.167216</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2217834126.188547</v>
+        <v>2096984015.481925</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07366745387079809</v>
+        <v>0.1004250821305795</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03293169478967058</v>
+        <v>0.03635603285611941</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1108916974.344416</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2296116899.91534</v>
+        <v>2639468430.085544</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1027149905816801</v>
+        <v>0.08550788368083156</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04951731992902813</v>
+        <v>0.04769095450721578</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>179</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1148058510.433373</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3878981783.589898</v>
+        <v>3326991734.011004</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1812273290205801</v>
+        <v>0.1242260653496203</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02737064493315136</v>
+        <v>0.02536804347496595</v>
       </c>
       <c r="H74" t="b">
         <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>161</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1939490881.189737</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2305404340.82304</v>
+        <v>2297178078.649507</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1524283553398806</v>
+        <v>0.1236164251870167</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03519423397811364</v>
+        <v>0.03443710526442183</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
         <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1152702105.958397</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3766478282.333663</v>
+        <v>4685782503.238969</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08931719757297135</v>
+        <v>0.09976689203878908</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02403346705233098</v>
+        <v>0.02625096143661636</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1883239116.114236</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1497413998.021693</v>
+        <v>1788345230.082222</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1209283156042139</v>
+        <v>0.1794320793345429</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02606905457433384</v>
+        <v>0.02802222042700284</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>748706986.2974252</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3565094753.523198</v>
+        <v>4005493323.792544</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09194406103067523</v>
+        <v>0.1091292845303315</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03690580605607548</v>
+        <v>0.04344450024859511</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>165</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1782547373.64368</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1671949244.22884</v>
+        <v>1836576787.429106</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1557163853063389</v>
+        <v>0.1565714601341824</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03608970557335738</v>
+        <v>0.03122866629433077</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>835974686.41834</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5244678630.03144</v>
+        <v>3927300638.475986</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08807387270064714</v>
+        <v>0.09302741836460669</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03310636033106544</v>
+        <v>0.03713645235569692</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>105</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2622339376.406908</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5097325161.750135</v>
+        <v>3443727845.964498</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1025972429786054</v>
+        <v>0.09426469431877875</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03007080986242474</v>
+        <v>0.02972687726387731</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>110</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2548662584.852877</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5412725428.527129</v>
+        <v>4906957798.464883</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2128953513139007</v>
+        <v>0.1592729697952248</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02108297595701443</v>
+        <v>0.02058303928487141</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>165</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2706362675.189985</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2447424735.026298</v>
+        <v>2240471992.187796</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1093001417186631</v>
+        <v>0.138905651658023</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03375358038547166</v>
+        <v>0.0388398006065319</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1223712408.551114</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1688426334.315829</v>
+        <v>1815048120.518627</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08844502671887788</v>
+        <v>0.07967883427035863</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04581295451434449</v>
+        <v>0.04079350118500456</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>7</v>
-      </c>
-      <c r="J84" t="n">
-        <v>844213217.8620753</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3092699478.499517</v>
+        <v>3024077839.677905</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1467682016979925</v>
+        <v>0.1773026964121699</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04013422024835651</v>
+        <v>0.04918948696720846</v>
       </c>
       <c r="H85" t="b">
         <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>177</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1546349809.684408</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2722307577.132823</v>
+        <v>2540761254.531504</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1046916180461593</v>
+        <v>0.1520564114805296</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02349420511434686</v>
+        <v>0.01870057387588607</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>60</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1361153916.664186</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1393958827.474102</v>
+        <v>1386965785.288994</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1523951719859543</v>
+        <v>0.1869139513938533</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03109656761999425</v>
+        <v>0.0346585813450996</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>696979519.0489058</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3253419397.41124</v>
+        <v>2694542810.325253</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1096377370935053</v>
+        <v>0.1400758724291143</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03301936984557446</v>
+        <v>0.02472504862660229</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>188</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1626709754.212798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2263911598.46287</v>
+        <v>3213362829.510511</v>
       </c>
       <c r="F89" t="n">
-        <v>0.105323713895037</v>
+        <v>0.09778003871917892</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03606754707203807</v>
+        <v>0.03592668613016028</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>161</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1131955891.312766</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2117586941.23908</v>
+        <v>1909462805.850361</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1039772865638</v>
+        <v>0.1067330034294735</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05416914758534353</v>
+        <v>0.03582388274448751</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1058793562.440668</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1794429373.20982</v>
+        <v>1942487244.804635</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1871404514638844</v>
+        <v>0.132870596519902</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0439380753640987</v>
+        <v>0.04124399363606958</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>897214686.2849935</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2165205436.408465</v>
+        <v>2705186558.102528</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06718747683057739</v>
+        <v>0.06983024395428968</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03913078185061873</v>
+        <v>0.03784923479453734</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>131</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1082602676.931144</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4110652865.655587</v>
+        <v>3916174286.416728</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1023905243651307</v>
+        <v>0.1087340994303466</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0475222988227617</v>
+        <v>0.043482927559442</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>140</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2055326426.320456</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2328099633.959738</v>
+        <v>2234449914.563833</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1618893393922487</v>
+        <v>0.1117370956834767</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03183339799420573</v>
+        <v>0.03206905795256257</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1164049858.028793</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2611569103.05617</v>
+        <v>2069219225.457634</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1378575266587324</v>
+        <v>0.1338262550653152</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04823685533664913</v>
+        <v>0.03880635761338156</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>118</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1305784579.518033</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2303483442.948095</v>
+        <v>1580933168.124305</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0964403601762935</v>
+        <v>0.1314835142217787</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04610617075961203</v>
+        <v>0.02993871167091742</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1151741676.096212</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4657954524.727923</v>
+        <v>4522112173.234592</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1289985539936448</v>
+        <v>0.1453181897780613</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0277327987812502</v>
+        <v>0.02515833815426861</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>152</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2328977371.688867</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3687749926.567616</v>
+        <v>2641556395.680942</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09966653966388331</v>
+        <v>0.08014041456920355</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02369288253581621</v>
+        <v>0.0215958803625628</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>127</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1843874994.629117</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2473599399.226184</v>
+        <v>2382466845.861051</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1007081486135206</v>
+        <v>0.121832326247862</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02767096215638857</v>
+        <v>0.02663300481902255</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>149</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1236799647.498207</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3592144440.716538</v>
+        <v>4545897030.612346</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1573761045114913</v>
+        <v>0.160959090392214</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01751314179513119</v>
+        <v>0.02506036888522899</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>144</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1796072258.502305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2939105397.752993</v>
+        <v>3614483041.746095</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1390441571322154</v>
+        <v>0.1660031782343461</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05336655166345632</v>
+        <v>0.04824822762947661</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>194</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1469552779.950973</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_474.xlsx
+++ b/output/fit_clients/fit_round_474.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1754309863.696459</v>
+        <v>2293007992.733471</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08356713132156333</v>
+        <v>0.1134477115506977</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03511401020411823</v>
+        <v>0.02966108660167911</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2153408317.734063</v>
+        <v>2275218303.578791</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1278199377937293</v>
+        <v>0.1258665146747178</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03284722373012232</v>
+        <v>0.04398997218169448</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4436308287.554962</v>
+        <v>4289361435.255865</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1609043125115114</v>
+        <v>0.108222981980032</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02331239135734958</v>
+        <v>0.02950879163048708</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4059167094.719139</v>
+        <v>3485882334.081827</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09853722564918359</v>
+        <v>0.07171524935835014</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0319189208965734</v>
+        <v>0.03158786157415557</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1743022388.891853</v>
+        <v>1821294936.354774</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1022065944290016</v>
+        <v>0.09326942502156212</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05334981469775759</v>
+        <v>0.0465169595291023</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,16 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3108073062.393671</v>
+        <v>2118478194.829967</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0779214921276136</v>
+        <v>0.07355715933717163</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03419345910343553</v>
+        <v>0.03407161505040181</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3340153241.823708</v>
+        <v>2778310486.146785</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1782986111942892</v>
+        <v>0.1790921058162895</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03244201213131441</v>
+        <v>0.0297195352048589</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1754613704.435058</v>
+        <v>2117444620.295403</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1707729633755476</v>
+        <v>0.171742656286459</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02312465289022199</v>
+        <v>0.02930453941198765</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5748418429.630489</v>
+        <v>3765874496.681963</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1409619367779139</v>
+        <v>0.1858300631566535</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03466763796951194</v>
+        <v>0.05125741493364833</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2947889669.684792</v>
+        <v>2956826512.68837</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1217608919876246</v>
+        <v>0.133280246236762</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04154193656082174</v>
+        <v>0.04718696655663079</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,16 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2944650782.025986</v>
+        <v>2231115813.311272</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1217822572209601</v>
+        <v>0.1512427580492811</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04839099814042787</v>
+        <v>0.04923385987475621</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4957041723.953195</v>
+        <v>3891279180.172544</v>
       </c>
       <c r="F13" t="n">
-        <v>0.101876243523731</v>
+        <v>0.0933190631742704</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02258940608539325</v>
+        <v>0.02096308594135294</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3653058335.986527</v>
+        <v>2803248787.715675</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1561994399784513</v>
+        <v>0.13801911311034</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03571713353847002</v>
+        <v>0.02802657182681516</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1560851058.756103</v>
+        <v>1454549112.256353</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07299095282720582</v>
+        <v>0.08046847432985484</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03895363264416993</v>
+        <v>0.03517889896403977</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1813936414.264101</v>
+        <v>2273687881.788786</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09827730093325265</v>
+        <v>0.08398996321026451</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03221680837750875</v>
+        <v>0.04623040872904904</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4521772268.419404</v>
+        <v>5289402325.487012</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1378630660010797</v>
+        <v>0.1698105463222332</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05300418764512086</v>
+        <v>0.04775663636994797</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2933239131.846602</v>
+        <v>3179806002.238839</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1587561164881263</v>
+        <v>0.1398892024725975</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02686859683913671</v>
+        <v>0.02397606452198607</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>979540231.4736581</v>
+        <v>847975717.2158904</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1183663244757311</v>
+        <v>0.1799890818337651</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02440162094710513</v>
+        <v>0.01907680091570206</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1728801569.401472</v>
+        <v>2564409383.752935</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1105280086869487</v>
+        <v>0.1562024797800286</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02447193647189817</v>
+        <v>0.02700280025613456</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2048685736.386495</v>
+        <v>2267223119.999832</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09766858527942919</v>
+        <v>0.08583908313373401</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03961738352475403</v>
+        <v>0.03059877110110406</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3030344046.884968</v>
+        <v>2793441226.410661</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1399546309027454</v>
+        <v>0.1183767820100824</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03692579088551989</v>
+        <v>0.04004359111699159</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1324061446.760072</v>
+        <v>1037208885.191611</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1741990620700616</v>
+        <v>0.1455769242121516</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05448297989533559</v>
+        <v>0.04196271277668227</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2914224432.325736</v>
+        <v>2665700083.118332</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1502399312573544</v>
+        <v>0.0927284198080876</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03046917255981456</v>
+        <v>0.03234569488152974</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1130,16 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1258145776.40449</v>
+        <v>1419967989.25463</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1091837719674008</v>
+        <v>0.1183326647394729</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02951179717099994</v>
+        <v>0.02760918634775581</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1327466330.167276</v>
+        <v>1370099667.013921</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09665910250002142</v>
+        <v>0.0783959529352953</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0278298850756349</v>
+        <v>0.03465969679741046</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3484272022.33754</v>
+        <v>4700898101.235373</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0979622796261423</v>
+        <v>0.1028947541880956</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02316702547486724</v>
+        <v>0.023937198740548</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3782358025.758565</v>
+        <v>2898244376.835517</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1415794185130189</v>
+        <v>0.1307092266852966</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03916469290187411</v>
+        <v>0.03316718435597</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4750417475.310212</v>
+        <v>5922941733.834682</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1068590899851073</v>
+        <v>0.09723896462718168</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03752075534117722</v>
+        <v>0.03361261576084915</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1596293133.192383</v>
+        <v>1858418793.946432</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1323385821166357</v>
+        <v>0.1401088807451755</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03440825041631447</v>
+        <v>0.03011433370317506</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1174689441.740424</v>
+        <v>961170614.6590799</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0717454526702084</v>
+        <v>0.109671138627272</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05001946515348413</v>
+        <v>0.05079105590742261</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1698094618.368255</v>
+        <v>1255291004.932208</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1120391568349372</v>
+        <v>0.106960973064686</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03135126384165081</v>
+        <v>0.03264247756428111</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2731555930.931653</v>
+        <v>2635051735.389663</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1992599921194236</v>
+        <v>0.1774552883391639</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05333077171553665</v>
+        <v>0.04775093043803542</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1268087426.03617</v>
+        <v>1211598227.089874</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09967864297359544</v>
+        <v>0.07968357690057849</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02377612107465939</v>
+        <v>0.02269593489575753</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1013566643.666338</v>
+        <v>1231266085.184039</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1033023984013249</v>
+        <v>0.09457259272179902</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03878882600980543</v>
+        <v>0.0370108590298172</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2784850803.951961</v>
+        <v>2676088792.116053</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1226669709817257</v>
+        <v>0.1321847438834303</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02213699004262206</v>
+        <v>0.02479887452459882</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1782779853.797242</v>
+        <v>1970004643.09261</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1056438867220748</v>
+        <v>0.1071479849959202</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0279165663473406</v>
+        <v>0.02699657805847065</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1880156276.853206</v>
+        <v>2147694532.931302</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08743755070047547</v>
+        <v>0.0975714528621823</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03423882733867689</v>
+        <v>0.03565757178328775</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,16 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1582086929.605155</v>
+        <v>1438353481.64381</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1945351494414264</v>
+        <v>0.1168762307261204</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02933878767882842</v>
+        <v>0.03071918754262595</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1822722350.911415</v>
+        <v>1574283836.728823</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1561227262840038</v>
+        <v>0.1450270989933088</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04095574056341678</v>
+        <v>0.04057709651551768</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2440052249.64502</v>
+        <v>2056238360.06674</v>
       </c>
       <c r="F41" t="n">
-        <v>0.124472035632335</v>
+        <v>0.1076936258658712</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0406232323591055</v>
+        <v>0.0342818958348153</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3886408291.07874</v>
+        <v>3046298377.661803</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1110291257525944</v>
+        <v>0.08588058791078493</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03947455013936002</v>
+        <v>0.04548288325433739</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2941875808.897522</v>
+        <v>1987745368.255612</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1396878390635441</v>
+        <v>0.1376489622568162</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02436737027944703</v>
+        <v>0.01649330156470835</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2091207241.039638</v>
+        <v>1496026078.963571</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07334385463099104</v>
+        <v>0.07771759301280713</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03379536650218479</v>
+        <v>0.03610979186749764</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2462141227.50248</v>
+        <v>1898865762.269702</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1881376113477283</v>
+        <v>0.1557618548998405</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03892127994764325</v>
+        <v>0.03706428972232217</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3455134141.386793</v>
+        <v>3937513495.700036</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1445187019829393</v>
+        <v>0.114505753658254</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03893873290416691</v>
+        <v>0.0566677608867435</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4929624299.254633</v>
+        <v>3486848580.332401</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1406180130899211</v>
+        <v>0.1856250586639189</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05883239695232584</v>
+        <v>0.03963200186877049</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3013882228.966948</v>
+        <v>4370687317.164454</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1007723846964145</v>
+        <v>0.1021593541957824</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02412968702033986</v>
+        <v>0.02880412928054927</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1672838041.090077</v>
+        <v>1291903979.762723</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1190576477163378</v>
+        <v>0.1399691424754406</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04043871454599571</v>
+        <v>0.03120804412041027</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3653182243.748822</v>
+        <v>3769166348.396049</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1407442518158791</v>
+        <v>0.1350579101913669</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04206725376556247</v>
+        <v>0.05227295803548072</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1279364262.229778</v>
+        <v>1106282276.005218</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1562301201725466</v>
+        <v>0.149769326804807</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03844002806664289</v>
+        <v>0.03603677496962389</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3531158576.599412</v>
+        <v>5144184506.903552</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1023035551537144</v>
+        <v>0.1349363662782293</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04051201373240818</v>
+        <v>0.04048629508561922</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3227636959.390567</v>
+        <v>2545378766.564245</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1947494636324749</v>
+        <v>0.199636244981181</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02620636561900081</v>
+        <v>0.03003365891611391</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3677669032.198228</v>
+        <v>3448949036.85918</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1025348918198937</v>
+        <v>0.1111291473937611</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03814241020195084</v>
+        <v>0.040427634794335</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4714011063.661917</v>
+        <v>4802780257.874578</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2116024020953249</v>
+        <v>0.1562057955657031</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02147139501939734</v>
+        <v>0.02030496123561683</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1234642757.531542</v>
+        <v>1319570203.705104</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1418194002524073</v>
+        <v>0.1445624532498271</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03878466535791895</v>
+        <v>0.03616573119540167</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4462985799.456023</v>
+        <v>3914542375.400104</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1559199265881147</v>
+        <v>0.1240101340656132</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01986360561041673</v>
+        <v>0.02182928123951808</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1577612838.76976</v>
+        <v>1289800544.544089</v>
       </c>
       <c r="F58" t="n">
-        <v>0.187787040496401</v>
+        <v>0.1333752938883526</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03206532726693306</v>
+        <v>0.0303213726564691</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3784405108.684963</v>
+        <v>4737580075.570142</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08723535094596817</v>
+        <v>0.1233169428944385</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04647789484497526</v>
+        <v>0.04391126661933822</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2374778512.010838</v>
+        <v>3526991682.291098</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1295136438443515</v>
+        <v>0.2012707931689787</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02398429607966635</v>
+        <v>0.02964277563383116</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3165343016.753458</v>
+        <v>2100982800.374875</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1354212921910101</v>
+        <v>0.1330624553505803</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02231801674577714</v>
+        <v>0.02828905345292744</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1636467351.066712</v>
+        <v>2041263368.765551</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1343843908112393</v>
+        <v>0.1927728140076866</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03604999974448531</v>
+        <v>0.04205117200664072</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4858506527.388195</v>
+        <v>3720860476.372998</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0949818565174716</v>
+        <v>0.1044776329981834</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03093228522987693</v>
+        <v>0.04288077419068545</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4736687727.803063</v>
+        <v>4900881328.975947</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1584728995401739</v>
+        <v>0.172740545963499</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02271788296558351</v>
+        <v>0.02473583253518996</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5581461355.959939</v>
+        <v>5085489245.096767</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1492401444604882</v>
+        <v>0.1304808370056379</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02148843237372937</v>
+        <v>0.02677097422359832</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4043914043.123067</v>
+        <v>3921204260.870149</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1290199169140658</v>
+        <v>0.144502437385548</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03784286984018861</v>
+        <v>0.05016687772202073</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2431744224.215488</v>
+        <v>3314360990.285685</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09358288062710637</v>
+        <v>0.0752945840424757</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05076548556828933</v>
+        <v>0.03497812645325563</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4629103638.812028</v>
+        <v>5644326644.674183</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1063545805772578</v>
+        <v>0.1461246966747937</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03990335916188283</v>
+        <v>0.0405326633091147</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2041806766.148846</v>
+        <v>1706622105.717031</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1206536834809278</v>
+        <v>0.1713053881996695</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04511343656031339</v>
+        <v>0.03673145417653804</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3613598012.345538</v>
+        <v>3191985005.141201</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09990392974318281</v>
+        <v>0.07508992354635768</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03959784448601334</v>
+        <v>0.04679547962902546</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5539865461.933226</v>
+        <v>4158278188.594917</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1622948216514687</v>
+        <v>0.171263879426227</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02655341930003376</v>
+        <v>0.02829688449359064</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2096984015.481925</v>
+        <v>1860111859.666722</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1004250821305795</v>
+        <v>0.07033341472038242</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03635603285611941</v>
+        <v>0.04211419944367434</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2639468430.085544</v>
+        <v>3041216600.216017</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08550788368083156</v>
+        <v>0.1004266239084967</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04769095450721578</v>
+        <v>0.04348453909142145</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3326991734.011004</v>
+        <v>3701192829.991247</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1242260653496203</v>
+        <v>0.1388608495689259</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02536804347496595</v>
+        <v>0.0285210293129223</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2530,16 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2297178078.649507</v>
+        <v>2126782297.567752</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1236164251870167</v>
+        <v>0.1104819251994521</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03443710526442183</v>
+        <v>0.02451222945890147</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4685782503.238969</v>
+        <v>3584008756.657111</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09976689203878908</v>
+        <v>0.08893843907700745</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02625096143661636</v>
+        <v>0.02157314736960023</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1788345230.082222</v>
+        <v>2117372646.027858</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1794320793345429</v>
+        <v>0.1724300926298946</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02802222042700284</v>
+        <v>0.02082711126097141</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4005493323.792544</v>
+        <v>4512941144.411119</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1091292845303315</v>
+        <v>0.09659184567643321</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04344450024859511</v>
+        <v>0.03781817569286687</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1836576787.429106</v>
+        <v>1554350922.040178</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1565714601341824</v>
+        <v>0.1689111032403622</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03122866629433077</v>
+        <v>0.03612085070336404</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3927300638.475986</v>
+        <v>3832165285.280261</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09302741836460669</v>
+        <v>0.1025770996542215</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03713645235569692</v>
+        <v>0.02714630056150097</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3443727845.964498</v>
+        <v>4143061576.248835</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09426469431877875</v>
+        <v>0.1140565271187308</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02972687726387731</v>
+        <v>0.03142093093492592</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4906957798.464883</v>
+        <v>5287016405.817878</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1592729697952248</v>
+        <v>0.1317059010828616</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02058303928487141</v>
+        <v>0.02295956630325241</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2240471992.187796</v>
+        <v>2117165525.023787</v>
       </c>
       <c r="F83" t="n">
-        <v>0.138905651658023</v>
+        <v>0.1454295913647372</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0388398006065319</v>
+        <v>0.03206870316213148</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1815048120.518627</v>
+        <v>2055035846.53653</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07967883427035863</v>
+        <v>0.08758217579383576</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04079350118500456</v>
+        <v>0.04122137065736029</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3024077839.677905</v>
+        <v>3460759406.790823</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1773026964121699</v>
+        <v>0.1338511197022751</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04918948696720846</v>
+        <v>0.03620504401233884</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2540761254.531504</v>
+        <v>2159928098.327821</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1520564114805296</v>
+        <v>0.1732193872187152</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01870057387588607</v>
+        <v>0.02353397266085331</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1386965785.288994</v>
+        <v>1101919206.529133</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1869139513938533</v>
+        <v>0.1811725683560307</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0346585813450996</v>
+        <v>0.03102536983634341</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2694542810.325253</v>
+        <v>3246245793.931399</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1400758724291143</v>
+        <v>0.1467774360483103</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02472504862660229</v>
+        <v>0.02517386995824167</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3213362829.510511</v>
+        <v>2254955840.743915</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09778003871917892</v>
+        <v>0.142577430367801</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03592668613016028</v>
+        <v>0.02783578711024113</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1909462805.850361</v>
+        <v>2054151385.962155</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1067330034294735</v>
+        <v>0.1372046682212021</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03582388274448751</v>
+        <v>0.0451810790832766</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1942487244.804635</v>
+        <v>1844298907.138458</v>
       </c>
       <c r="F91" t="n">
-        <v>0.132870596519902</v>
+        <v>0.1205010423257047</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04124399363606958</v>
+        <v>0.04780457861446027</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2705186558.102528</v>
+        <v>2785109478.655556</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06983024395428968</v>
+        <v>0.09414660643227622</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03784923479453734</v>
+        <v>0.03714608516502173</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3916174286.416728</v>
+        <v>3735702593.142538</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1087340994303466</v>
+        <v>0.09892505072346094</v>
       </c>
       <c r="G93" t="n">
-        <v>0.043482927559442</v>
+        <v>0.05143688169137575</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2234449914.563833</v>
+        <v>1633439250.959177</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1117370956834767</v>
+        <v>0.1159317439506536</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03206905795256257</v>
+        <v>0.0424259904208231</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2069219225.457634</v>
+        <v>2906972173.519136</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1338262550653152</v>
+        <v>0.1166451242702708</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03880635761338156</v>
+        <v>0.04554251328493383</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1580933168.124305</v>
+        <v>2019631140.652141</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1314835142217787</v>
+        <v>0.14067858431606</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02993871167091742</v>
+        <v>0.03004935082920938</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4522112173.234592</v>
+        <v>4805248028.759604</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1453181897780613</v>
+        <v>0.1187846554626326</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02515833815426861</v>
+        <v>0.01825153807851924</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2641556395.680942</v>
+        <v>3459878861.596429</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08014041456920355</v>
+        <v>0.0813542019553274</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0215958803625628</v>
+        <v>0.03206129272217915</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2382466845.861051</v>
+        <v>2589840363.365532</v>
       </c>
       <c r="F99" t="n">
-        <v>0.121832326247862</v>
+        <v>0.1311950625702022</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02663300481902255</v>
+        <v>0.02526207522720932</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4545897030.612346</v>
+        <v>3415890982.388393</v>
       </c>
       <c r="F100" t="n">
-        <v>0.160959090392214</v>
+        <v>0.1454982111562697</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02506036888522899</v>
+        <v>0.0258745204929298</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3614483041.746095</v>
+        <v>2414652505.715014</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1660031782343461</v>
+        <v>0.1600133569375523</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04824822762947661</v>
+        <v>0.03560789283788922</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_474.xlsx
+++ b/output/fit_clients/fit_round_474.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2293007992.733471</v>
+        <v>1934376954.259455</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1134477115506977</v>
+        <v>0.08476135715887199</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02966108660167911</v>
+        <v>0.03145123110613202</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2275218303.578791</v>
+        <v>2425167657.693873</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1258665146747178</v>
+        <v>0.1806812362873503</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04398997218169448</v>
+        <v>0.04585619160721892</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4289361435.255865</v>
+        <v>5049768672.778599</v>
       </c>
       <c r="F4" t="n">
-        <v>0.108222981980032</v>
+        <v>0.1032399565111392</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02950879163048708</v>
+        <v>0.034234465650149</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>239</v>
+      </c>
+      <c r="J4" t="n">
+        <v>474</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3485882334.081827</v>
+        <v>4176652887.919073</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07171524935835014</v>
+        <v>0.0768712370050597</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03158786157415557</v>
+        <v>0.05033376986527471</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>199</v>
+      </c>
+      <c r="J5" t="n">
+        <v>474</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1821294936.354774</v>
+        <v>2478270921.163751</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09326942502156212</v>
+        <v>0.09258654848927515</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0465169595291023</v>
+        <v>0.04943431354420912</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2118478194.829967</v>
+        <v>2354838207.782526</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07355715933717163</v>
+        <v>0.0901201406533835</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03407161505040181</v>
+        <v>0.03206878504037652</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2778310486.146785</v>
+        <v>3415031393.018826</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1790921058162895</v>
+        <v>0.2021561952157884</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0297195352048589</v>
+        <v>0.03324489987088255</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>135</v>
+      </c>
+      <c r="J8" t="n">
+        <v>470</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2117444620.295403</v>
+        <v>2284561639.361305</v>
       </c>
       <c r="F9" t="n">
-        <v>0.171742656286459</v>
+        <v>0.1364548269151744</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02930453941198765</v>
+        <v>0.03442497986763634</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +775,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3765874496.681963</v>
+        <v>5008611484.527728</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1858300631566535</v>
+        <v>0.1760335337415873</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05125741493364833</v>
+        <v>0.05136549238512299</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>362</v>
+      </c>
+      <c r="J10" t="n">
+        <v>474</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,22 +810,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2956826512.68837</v>
+        <v>3735168503.440213</v>
       </c>
       <c r="F11" t="n">
-        <v>0.133280246236762</v>
+        <v>0.1308425315319822</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04718696655663079</v>
+        <v>0.04733598080423606</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>196</v>
+      </c>
+      <c r="J11" t="n">
+        <v>474</v>
+      </c>
+      <c r="K11" t="n">
+        <v>38.04275914631616</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +847,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2231115813.311272</v>
+        <v>2533147361.952752</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1512427580492811</v>
+        <v>0.1439741902316072</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04923385987475621</v>
+        <v>0.03703311393485662</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +882,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3891279180.172544</v>
+        <v>3394402844.606998</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0933190631742704</v>
+        <v>0.0732528687659066</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02096308594135294</v>
+        <v>0.02863416234636753</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>246</v>
+      </c>
+      <c r="J13" t="n">
+        <v>472</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +917,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2803248787.715675</v>
+        <v>3597325603.216427</v>
       </c>
       <c r="F14" t="n">
-        <v>0.13801911311034</v>
+        <v>0.1867264151791332</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02802657182681516</v>
+        <v>0.04214109749316244</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>108</v>
+      </c>
+      <c r="J14" t="n">
+        <v>470</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +952,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1454549112.256353</v>
+        <v>1322169055.242612</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08046847432985484</v>
+        <v>0.09249744422771621</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03517889896403977</v>
+        <v>0.03737687554671979</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +987,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2273687881.788786</v>
+        <v>2651574549.8819</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08398996321026451</v>
+        <v>0.08552667405132755</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04623040872904904</v>
+        <v>0.05135812821403731</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1022,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5289402325.487012</v>
+        <v>4064633869.778769</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1698105463222332</v>
+        <v>0.1354746303602205</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04775663636994797</v>
+        <v>0.04553161203344186</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>232</v>
+      </c>
+      <c r="J17" t="n">
+        <v>473</v>
+      </c>
+      <c r="K17" t="n">
+        <v>29.7366862094447</v>
       </c>
     </row>
     <row r="18">
@@ -934,17 +1065,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3179806002.238839</v>
+        <v>2721284643.435601</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1398892024725975</v>
+        <v>0.1828571636679426</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02397606452198607</v>
+        <v>0.02290615064044759</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>127</v>
+      </c>
+      <c r="J18" t="n">
+        <v>470</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1100,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>847975717.2158904</v>
+        <v>992613197.7025139</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1799890818337651</v>
+        <v>0.1883973153975223</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01907680091570206</v>
+        <v>0.01918681387507376</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1129,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2564409383.752935</v>
+        <v>2309160429.218346</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1562024797800286</v>
+        <v>0.1071383219535408</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02700280025613456</v>
+        <v>0.02637330755859972</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1164,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2267223119.999832</v>
+        <v>1974423900.775076</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08583908313373401</v>
+        <v>0.08184268211153077</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03059877110110406</v>
+        <v>0.03408726661727921</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1205,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2793441226.410661</v>
+        <v>3004315845.44846</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1183767820100824</v>
+        <v>0.1422858707920682</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04004359111699159</v>
+        <v>0.03805861172957878</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>138</v>
+      </c>
+      <c r="J22" t="n">
+        <v>472</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1234,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1037208885.191611</v>
+        <v>965731323.2491201</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1455769242121516</v>
+        <v>0.1700460941768161</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04196271277668227</v>
+        <v>0.03502696208062588</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1275,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2665700083.118332</v>
+        <v>2510631808.606424</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0927284198080876</v>
+        <v>0.1473371601208022</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03234569488152974</v>
+        <v>0.02714827829752365</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>151</v>
+      </c>
+      <c r="J24" t="n">
+        <v>472</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1304,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1419967989.25463</v>
+        <v>1088950780.290078</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1183326647394729</v>
+        <v>0.1043360742379801</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02760918634775581</v>
+        <v>0.01987566028961266</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1339,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1370099667.013921</v>
+        <v>1193091230.757816</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0783959529352953</v>
+        <v>0.08724611218534713</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03465969679741046</v>
+        <v>0.02881334794093467</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1374,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4700898101.235373</v>
+        <v>4362612256.261653</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1028947541880956</v>
+        <v>0.1296586733726755</v>
       </c>
       <c r="G27" t="n">
-        <v>0.023937198740548</v>
+        <v>0.01694891086760245</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>209</v>
+      </c>
+      <c r="J27" t="n">
+        <v>474</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1409,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2898244376.835517</v>
+        <v>2766668185.102247</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1307092266852966</v>
+        <v>0.1099683127157525</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03316718435597</v>
+        <v>0.03519047950010592</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>117</v>
+      </c>
+      <c r="J28" t="n">
+        <v>471</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1444,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5922941733.834682</v>
+        <v>5193305441.220162</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09723896462718168</v>
+        <v>0.1386424420685538</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03361261576084915</v>
+        <v>0.03593023730644702</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>378</v>
+      </c>
+      <c r="J29" t="n">
+        <v>473</v>
+      </c>
+      <c r="K29" t="n">
+        <v>27.95434352631824</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1481,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1858418793.946432</v>
+        <v>1701572114.052089</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1401088807451755</v>
+        <v>0.09076009949690161</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03011433370317506</v>
+        <v>0.03364470595212177</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1516,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>961170614.6590799</v>
+        <v>1229348219.60316</v>
       </c>
       <c r="F31" t="n">
-        <v>0.109671138627272</v>
+        <v>0.1000541688166256</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05079105590742261</v>
+        <v>0.0396376374052874</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1551,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1255291004.932208</v>
+        <v>1151528496.735893</v>
       </c>
       <c r="F32" t="n">
-        <v>0.106960973064686</v>
+        <v>0.1208452741574872</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03264247756428111</v>
+        <v>0.03409537739263375</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1592,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2635051735.389663</v>
+        <v>2393971545.009713</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1774552883391639</v>
+        <v>0.1562454892723779</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04775093043803542</v>
+        <v>0.03798646841439541</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1627,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1211598227.089874</v>
+        <v>1436181529.012869</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07968357690057849</v>
+        <v>0.09395339832179572</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02269593489575753</v>
+        <v>0.02607590502636939</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1656,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1231266085.184039</v>
+        <v>1230715491.526437</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09457259272179902</v>
+        <v>0.09203356479544236</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0370108590298172</v>
+        <v>0.03896039155088402</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1691,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2676088792.116053</v>
+        <v>3187002107.084354</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1321847438834303</v>
+        <v>0.1342470045348066</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02479887452459882</v>
+        <v>0.02802347339871484</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1726,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1970004643.09261</v>
+        <v>2269726196.841352</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1071479849959202</v>
+        <v>0.07397751984152631</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02699657805847065</v>
+        <v>0.03503318291757872</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1767,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2147694532.931302</v>
+        <v>1826958273.11115</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0975714528621823</v>
+        <v>0.08396539228750378</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03565757178328775</v>
+        <v>0.02520767748589843</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1796,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1438353481.64381</v>
+        <v>1521965213.049247</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1168762307261204</v>
+        <v>0.1290331248417144</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03071918754262595</v>
+        <v>0.02457480023597169</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1831,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1574283836.728823</v>
+        <v>1668877907.187683</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1450270989933088</v>
+        <v>0.1080719589052363</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04057709651551768</v>
+        <v>0.04994025319978618</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1866,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2056238360.06674</v>
+        <v>1779634685.392544</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1076936258658712</v>
+        <v>0.1405570050232112</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0342818958348153</v>
+        <v>0.04129090151420674</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1901,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3046298377.661803</v>
+        <v>4275800585.825345</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08588058791078493</v>
+        <v>0.1139268923540755</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04548288325433739</v>
+        <v>0.04096312823348331</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>207</v>
+      </c>
+      <c r="J42" t="n">
+        <v>473</v>
+      </c>
+      <c r="K42" t="n">
+        <v>37.08886451793254</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1938,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1987745368.255612</v>
+        <v>2633141739.434071</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1376489622568162</v>
+        <v>0.148029293777077</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01649330156470835</v>
+        <v>0.02432557764711987</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1973,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1496026078.963571</v>
+        <v>1660662853.831658</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07771759301280713</v>
+        <v>0.09855888583815849</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03610979186749764</v>
+        <v>0.02740578221598425</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2008,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1898865762.269702</v>
+        <v>1633369407.070879</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1557618548998405</v>
+        <v>0.139962956617803</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03706428972232217</v>
+        <v>0.04183802380139003</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2049,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3937513495.700036</v>
+        <v>4560548100.40549</v>
       </c>
       <c r="F46" t="n">
-        <v>0.114505753658254</v>
+        <v>0.1760596956524636</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0566677608867435</v>
+        <v>0.03748176884118296</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>280</v>
+      </c>
+      <c r="J46" t="n">
+        <v>473</v>
+      </c>
+      <c r="K46" t="n">
+        <v>29.81942647945332</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +2086,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3486848580.332401</v>
+        <v>3210012159.088251</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1856250586639189</v>
+        <v>0.1224861125272569</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03963200186877049</v>
+        <v>0.04178458988911525</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>214</v>
+      </c>
+      <c r="J47" t="n">
+        <v>473</v>
+      </c>
+      <c r="K47" t="n">
+        <v>24.12714523628511</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +2123,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4370687317.164454</v>
+        <v>2995419914.041392</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1021593541957824</v>
+        <v>0.10851191863375</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02880412928054927</v>
+        <v>0.02462901222043378</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>237</v>
+      </c>
+      <c r="J48" t="n">
+        <v>473</v>
+      </c>
+      <c r="K48" t="n">
+        <v>21.52029972353277</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1291903979.762723</v>
+        <v>1666495717.793251</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1399691424754406</v>
+        <v>0.1857858767981676</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03120804412041027</v>
+        <v>0.03249118845913278</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2189,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3769166348.396049</v>
+        <v>4173094567.027308</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1350579101913669</v>
+        <v>0.1549130898419221</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05227295803548072</v>
+        <v>0.03510338737960246</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>169</v>
+      </c>
+      <c r="J50" t="n">
+        <v>474</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2230,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1106282276.005218</v>
+        <v>1443999918.577631</v>
       </c>
       <c r="F51" t="n">
-        <v>0.149769326804807</v>
+        <v>0.1798454386755894</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03603677496962389</v>
+        <v>0.03882106141048725</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2259,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5144184506.903552</v>
+        <v>4282677817.588682</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1349363662782293</v>
+        <v>0.09051725903351629</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04048629508561922</v>
+        <v>0.06028582006573772</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>266</v>
+      </c>
+      <c r="J52" t="n">
+        <v>474</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2294,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2545378766.564245</v>
+        <v>2912561838.662232</v>
       </c>
       <c r="F53" t="n">
-        <v>0.199636244981181</v>
+        <v>0.1803030833239514</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03003365891611391</v>
+        <v>0.02455755016148821</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>74</v>
+      </c>
+      <c r="J53" t="n">
+        <v>471</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2329,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3448949036.85918</v>
+        <v>3732549602.87949</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1111291473937611</v>
+        <v>0.1660806325069511</v>
       </c>
       <c r="G54" t="n">
-        <v>0.040427634794335</v>
+        <v>0.03204227671076839</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>250</v>
+      </c>
+      <c r="J54" t="n">
+        <v>474</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2364,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4802780257.874578</v>
+        <v>4139908464.577988</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1562057955657031</v>
+        <v>0.1679247550925659</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02030496123561683</v>
+        <v>0.01985918155737619</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>234</v>
+      </c>
+      <c r="J55" t="n">
+        <v>474</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2399,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1319570203.705104</v>
+        <v>1535945632.565753</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1445624532498271</v>
+        <v>0.1044617575408177</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03616573119540167</v>
+        <v>0.04366493046620461</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2434,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3914542375.400104</v>
+        <v>3683946962.422598</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1240101340656132</v>
+        <v>0.1773220776267446</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02182928123951808</v>
+        <v>0.02564612278189998</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>204</v>
+      </c>
+      <c r="J57" t="n">
+        <v>473</v>
+      </c>
+      <c r="K57" t="n">
+        <v>32.86566815977226</v>
       </c>
     </row>
     <row r="58">
@@ -2054,17 +2477,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1289800544.544089</v>
+        <v>1880184194.623914</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1333752938883526</v>
+        <v>0.201144736483388</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0303213726564691</v>
+        <v>0.03630099304063886</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2506,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4737580075.570142</v>
+        <v>3960269956.887166</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1233169428944385</v>
+        <v>0.1281269617730683</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04391126661933822</v>
+        <v>0.04068667289998253</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>232</v>
+      </c>
+      <c r="J59" t="n">
+        <v>474</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,22 +2541,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3526991682.291098</v>
+        <v>3238797476.011281</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2012707931689787</v>
+        <v>0.1829350517139615</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02964277563383116</v>
+        <v>0.02911901901757393</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>93</v>
+      </c>
+      <c r="J60" t="n">
+        <v>474</v>
+      </c>
+      <c r="K60" t="n">
+        <v>41.64770392430012</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2578,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2100982800.374875</v>
+        <v>2347197284.263281</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1330624553505803</v>
+        <v>0.1619856467014945</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02828905345292744</v>
+        <v>0.02056209752071683</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2613,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2041263368.765551</v>
+        <v>1614204825.072217</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1927728140076866</v>
+        <v>0.1690106149235861</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04205117200664072</v>
+        <v>0.04889149194685543</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2648,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3720860476.372998</v>
+        <v>5387327661.929083</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1044776329981834</v>
+        <v>0.1061348651456469</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04288077419068545</v>
+        <v>0.03776397628738089</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>236</v>
+      </c>
+      <c r="J63" t="n">
+        <v>474</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2683,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4900881328.975947</v>
+        <v>4494072778.461055</v>
       </c>
       <c r="F64" t="n">
-        <v>0.172740545963499</v>
+        <v>0.1250376962066242</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02473583253518996</v>
+        <v>0.02436940793676335</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>237</v>
+      </c>
+      <c r="J64" t="n">
+        <v>473</v>
+      </c>
+      <c r="K64" t="n">
+        <v>30.64968768254989</v>
       </c>
     </row>
     <row r="65">
@@ -2244,23 +2720,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5085489245.096767</v>
+        <v>5995642502.080488</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1304808370056379</v>
+        <v>0.1215305763162922</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02677097422359832</v>
+        <v>0.02272292177760552</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>334</v>
+      </c>
+      <c r="J65" t="n">
+        <v>474</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2755,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3921204260.870149</v>
+        <v>4005152133.99046</v>
       </c>
       <c r="F66" t="n">
-        <v>0.144502437385548</v>
+        <v>0.1523343149132081</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05016687772202073</v>
+        <v>0.04581706315720243</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>234</v>
+      </c>
+      <c r="J66" t="n">
+        <v>473</v>
+      </c>
+      <c r="K66" t="n">
+        <v>29.47468909270313</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2792,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3314360990.285685</v>
+        <v>2963444096.087892</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0752945840424757</v>
+        <v>0.08982609624739604</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03497812645325563</v>
+        <v>0.03285339582168461</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>14</v>
+      </c>
+      <c r="J67" t="n">
+        <v>456</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2827,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5644326644.674183</v>
+        <v>4913341944.778068</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1461246966747937</v>
+        <v>0.1027459965822053</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0405326633091147</v>
+        <v>0.0324829535270294</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>258</v>
+      </c>
+      <c r="J68" t="n">
+        <v>473</v>
+      </c>
+      <c r="K68" t="n">
+        <v>28.62116032628633</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2864,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1706622105.717031</v>
+        <v>1719915442.232747</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1713053881996695</v>
+        <v>0.1596160154984179</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03673145417653804</v>
+        <v>0.05445025653135845</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2899,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3191985005.141201</v>
+        <v>2764743106.304954</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07508992354635768</v>
+        <v>0.06209913990445867</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04679547962902546</v>
+        <v>0.03402290942143732</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>71</v>
+      </c>
+      <c r="J70" t="n">
+        <v>468</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2940,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4158278188.594917</v>
+        <v>4356069329.141977</v>
       </c>
       <c r="F71" t="n">
-        <v>0.171263879426227</v>
+        <v>0.1579392941382001</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02829688449359064</v>
+        <v>0.02340317172448605</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>321</v>
+      </c>
+      <c r="J71" t="n">
+        <v>473</v>
+      </c>
+      <c r="K71" t="n">
+        <v>30.74736382233135</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2971,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1860111859.666722</v>
+        <v>1758715528.647129</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07033341472038242</v>
+        <v>0.08470013526944076</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04211419944367434</v>
+        <v>0.05194993262229373</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3006,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3041216600.216017</v>
+        <v>3323183757.139283</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1004266239084967</v>
+        <v>0.06903032433950382</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04348453909142145</v>
+        <v>0.03594476703726777</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>43</v>
+      </c>
+      <c r="J73" t="n">
+        <v>472</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3041,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3701192829.991247</v>
+        <v>3602929045.422619</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1388608495689259</v>
+        <v>0.123942387148617</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0285210293129223</v>
+        <v>0.03074593390309886</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>141</v>
+      </c>
+      <c r="J74" t="n">
+        <v>474</v>
+      </c>
+      <c r="K74" t="n">
+        <v>38.47436127155993</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2126782297.567752</v>
+        <v>2474157188.219093</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1104819251994521</v>
+        <v>0.1607426461090085</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02451222945890147</v>
+        <v>0.03691211654506799</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3119,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3584008756.657111</v>
+        <v>3608804331.886673</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08893843907700745</v>
+        <v>0.1040393519502428</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02157314736960023</v>
+        <v>0.03326204532024975</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>226</v>
+      </c>
+      <c r="J76" t="n">
+        <v>474</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3148,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2117372646.027858</v>
+        <v>1398622732.265409</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1724300926298946</v>
+        <v>0.1809234522444181</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02082711126097141</v>
+        <v>0.02846232996437285</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3183,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4512941144.411119</v>
+        <v>4719864568.139859</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09659184567643321</v>
+        <v>0.08885230525339505</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03781817569286687</v>
+        <v>0.0421321923954206</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>235</v>
+      </c>
+      <c r="J78" t="n">
+        <v>474</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3218,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1554350922.040178</v>
+        <v>1414888259.203398</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1689111032403622</v>
+        <v>0.128766793068496</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03612085070336404</v>
+        <v>0.03802137853160153</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3259,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3832165285.280261</v>
+        <v>5327469655.120196</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1025770996542215</v>
+        <v>0.07618935639148955</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02714630056150097</v>
+        <v>0.02499840556921482</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>231</v>
+      </c>
+      <c r="J80" t="n">
+        <v>474</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,16 +3294,25 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4143061576.248835</v>
+        <v>4235278169.022597</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1140565271187308</v>
+        <v>0.09278895228670252</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03142093093492592</v>
+        <v>0.02201837556577412</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>221</v>
+      </c>
+      <c r="J81" t="n">
+        <v>473</v>
+      </c>
+      <c r="K81" t="n">
+        <v>28.97989774080773</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3325,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5287016405.817878</v>
+        <v>4716444137.111781</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1317059010828616</v>
+        <v>0.178741514644866</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02295956630325241</v>
+        <v>0.02157407243565969</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>312</v>
+      </c>
+      <c r="J82" t="n">
+        <v>474</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3360,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2117165525.023787</v>
+        <v>2447826811.396284</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1454295913647372</v>
+        <v>0.108911868579057</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03206870316213148</v>
+        <v>0.03077250939396131</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3401,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2055035846.53653</v>
+        <v>2388860682.87912</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08758217579383576</v>
+        <v>0.09475675501516295</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04122137065736029</v>
+        <v>0.05189898644290361</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,22 +3430,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3460759406.790823</v>
+        <v>2766278277.152268</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1338511197022751</v>
+        <v>0.1716945917764035</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03620504401233884</v>
+        <v>0.05513670188979949</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>66</v>
+      </c>
+      <c r="J85" t="n">
+        <v>474</v>
+      </c>
+      <c r="K85" t="n">
+        <v>37.34049779359742</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3467,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2159928098.327821</v>
+        <v>1981512262.92993</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1732193872187152</v>
+        <v>0.1345469157034309</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02353397266085331</v>
+        <v>0.02621413121459304</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3502,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1101919206.529133</v>
+        <v>1044852929.567028</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1811725683560307</v>
+        <v>0.1567734046512762</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03102536983634341</v>
+        <v>0.03726431469017009</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3537,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3246245793.931399</v>
+        <v>2697772817.660821</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1467774360483103</v>
+        <v>0.1606477806093093</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02517386995824167</v>
+        <v>0.03484735090292537</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>65</v>
+      </c>
+      <c r="J88" t="n">
+        <v>473</v>
+      </c>
+      <c r="K88" t="n">
+        <v>32.07586341783419</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2254955840.743915</v>
+        <v>2743003513.621527</v>
       </c>
       <c r="F89" t="n">
-        <v>0.142577430367801</v>
+        <v>0.1347143085162093</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02783578711024113</v>
+        <v>0.02692186997348738</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>27</v>
+      </c>
+      <c r="J89" t="n">
+        <v>466</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2054151385.962155</v>
+        <v>1602747082.162079</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1372046682212021</v>
+        <v>0.1254167181107769</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0451810790832766</v>
+        <v>0.03644151143253463</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1844298907.138458</v>
+        <v>1452348158.894617</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1205010423257047</v>
+        <v>0.1898211284902966</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04780457861446027</v>
+        <v>0.04659115862818824</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2785109478.655556</v>
+        <v>2642959734.251057</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09414660643227622</v>
+        <v>0.0704088145587774</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03714608516502173</v>
+        <v>0.04634313642352472</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3714,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3735702593.142538</v>
+        <v>3574176897.639462</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09892505072346094</v>
+        <v>0.1263304455985158</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05143688169137575</v>
+        <v>0.05131211282073782</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>226</v>
+      </c>
+      <c r="J93" t="n">
+        <v>470</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3749,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1633439250.959177</v>
+        <v>2361915042.037744</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1159317439506536</v>
+        <v>0.1349507524999199</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0424259904208231</v>
+        <v>0.03847812030575107</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3784,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2906972173.519136</v>
+        <v>2635313611.912661</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1166451242702708</v>
+        <v>0.136320239557034</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04554251328493383</v>
+        <v>0.03586962318678634</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3819,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2019631140.652141</v>
+        <v>1794182710.992047</v>
       </c>
       <c r="F96" t="n">
-        <v>0.14067858431606</v>
+        <v>0.1349223775735634</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03004935082920938</v>
+        <v>0.03074169607974625</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3854,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4805248028.759604</v>
+        <v>3520979085.125503</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1187846554626326</v>
+        <v>0.1139277436243871</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01825153807851924</v>
+        <v>0.02481791434280079</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>247</v>
+      </c>
+      <c r="J97" t="n">
+        <v>473</v>
+      </c>
+      <c r="K97" t="n">
+        <v>26.77436151328341</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3891,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3459878861.596429</v>
+        <v>3531583959.454701</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0813542019553274</v>
+        <v>0.07978394277941013</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03206129272217915</v>
+        <v>0.02733007840096405</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>119</v>
+      </c>
+      <c r="J98" t="n">
+        <v>474</v>
+      </c>
+      <c r="K98" t="n">
+        <v>43.17542901835973</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2589840363.365532</v>
+        <v>2672310765.439613</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1311950625702022</v>
+        <v>0.09757777739517028</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02526207522720932</v>
+        <v>0.02163563861911549</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3415890982.388393</v>
+        <v>2920483355.081663</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1454982111562697</v>
+        <v>0.1780609890278433</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0258745204929298</v>
+        <v>0.02300230796203059</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>222</v>
+      </c>
+      <c r="J100" t="n">
+        <v>473</v>
+      </c>
+      <c r="K100" t="n">
+        <v>19.5879525936456</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2414652505.715014</v>
+        <v>3096997298.700834</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1600133569375523</v>
+        <v>0.2046542495996837</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03560789283788922</v>
+        <v>0.05518109773216214</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>46</v>
+      </c>
+      <c r="J101" t="n">
+        <v>445</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
